--- a/biology/Mycologie/Agostino_Daldini/Agostino_Daldini.xlsx
+++ b/biology/Mycologie/Agostino_Daldini/Agostino_Daldini.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Agostino Daldini, né le 20 mars 1817 à Vezia et mort le 9 mai 1895 à Orselina, est un frère capucin, botaniste cryptogamiste et mycologue suisse.
 Il collabora à l'Erbario crittogamico italiano (1858-1885) et au Commentario della Società crittogamologica italiana (1861-1867). Ses collections mycologiques et ses archives sont conservées au Musée cantonal d'histoire naturelle de Lugano.
@@ -513,7 +525,9 @@
           <t>Source</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>« Agostino Daldini » dans le Dictionnaire historique de la Suisse en ligne.</t>
         </is>
